--- a/L2/L2.xlsx
+++ b/L2/L2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>V2</t>
   </si>
@@ -380,7 +380,7 @@
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="M2" sqref="M2:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +389,7 @@
     <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -411,8 +411,14 @@
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,8 +441,14 @@
       <c r="J2" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0.05</v>
+      </c>
+      <c r="N2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <v>11.9</v>
       </c>
@@ -453,8 +465,14 @@
       <c r="J3" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <v>11.9</v>
       </c>
@@ -471,8 +489,14 @@
       <c r="J4" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0.15</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>11.9</v>
       </c>
@@ -489,8 +513,14 @@
       <c r="J5" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>11.9</v>
       </c>
@@ -507,8 +537,14 @@
       <c r="J6" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0.25</v>
+      </c>
+      <c r="N6">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>11.9</v>
       </c>
@@ -525,8 +561,14 @@
       <c r="J7" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0.3</v>
+      </c>
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>11.87</v>
       </c>
@@ -544,7 +586,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>11.79</v>
       </c>
@@ -561,8 +603,14 @@
       <c r="J9" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0.35</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>11.63</v>
       </c>
@@ -579,8 +627,14 @@
       <c r="J10" s="2">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.4</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>11.34</v>
       </c>
@@ -597,8 +651,14 @@
       <c r="J11" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0.45</v>
+      </c>
+      <c r="N11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>10.96</v>
       </c>
@@ -615,8 +675,14 @@
       <c r="J12" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0.5</v>
+      </c>
+      <c r="N12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>10.79</v>
       </c>
@@ -633,8 +699,14 @@
       <c r="J13" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0.75</v>
+      </c>
+      <c r="N13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>10.7</v>
       </c>
@@ -651,8 +723,14 @@
       <c r="J14" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>10.47</v>
       </c>
@@ -669,8 +747,14 @@
       <c r="J15" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>9.81</v>
       </c>
@@ -687,8 +771,14 @@
       <c r="J16" s="2">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>8.8800000000000008</v>
       </c>
@@ -705,8 +795,14 @@
       <c r="J17" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>7.93</v>
       </c>
@@ -724,7 +820,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>6.88</v>
       </c>
@@ -742,7 +838,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>5.92</v>
       </c>
@@ -760,7 +856,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>4.95</v>
       </c>
@@ -778,7 +874,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>3.85</v>
       </c>
@@ -796,7 +892,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <v>2.9</v>
       </c>
@@ -814,7 +910,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>1.8</v>
       </c>
@@ -832,7 +928,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <v>0.86</v>
       </c>
@@ -850,7 +946,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <v>0.4</v>
       </c>
@@ -868,7 +964,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>0.2</v>
       </c>
@@ -886,7 +982,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>0.185</v>
       </c>
@@ -904,7 +1000,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>154</v>
       </c>
@@ -912,7 +1008,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>156</v>
       </c>
@@ -920,7 +1016,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>158</v>
       </c>
@@ -928,7 +1024,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>160</v>
       </c>
